--- a/raw/published_carbonValues.xlsx
+++ b/raw/published_carbonValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\OneDrive\Desktop\SizeSpectra_PelagicSynth-20240918T125431Z-001\SizeSpectra_PelagicSynth\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\OneDrive\Documents\MITWHOI\1. RESEARCH\NES-LTER\03_Pelagic_Synthesis_WG\03_SIZE_SPECTRA\lter_pelagic_wg_sizespectra\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C7A35A-4B85-4CBB-9DC0-333A3135390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4B621-02FD-4C5A-AD45-E8D1AE5F8527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{36FD65EF-1D68-4A45-93C4-894AF8DDDCD7}"/>
+    <workbookView xWindow="-29688" yWindow="900" windowWidth="18168" windowHeight="14028" xr2:uid="{36FD65EF-1D68-4A45-93C4-894AF8DDDCD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="143">
   <si>
     <t>stage</t>
   </si>
@@ -218,9 +217,6 @@
     <t>Saiz et al 1999; 20.34 ug from Deb</t>
   </si>
   <si>
-    <t>Barton et al. 2020; 0.78 ug Swadlinght et al 1997 in Lonsdale et al 2000</t>
-  </si>
-  <si>
     <t>Ostracoda</t>
   </si>
   <si>
@@ -252,25 +248,235 @@
   </si>
   <si>
     <t>Barton et al. 2020; ranges from 0.54 to 16.7 ug C in Bottger-Schnack and Schnack 2023 table 9</t>
+  </si>
+  <si>
+    <t>Acartia tonsa</t>
+  </si>
+  <si>
+    <t>Harpacticoida</t>
+  </si>
+  <si>
+    <t>Acartia longiremis</t>
+  </si>
+  <si>
+    <t>Nematoscelis megalops</t>
+  </si>
+  <si>
+    <t>Clausocalanus furcatus</t>
+  </si>
+  <si>
+    <t>Ctenocalanus vanus</t>
+  </si>
+  <si>
+    <t>Acartia danae</t>
+  </si>
+  <si>
+    <t>Calanoida nauplius</t>
+  </si>
+  <si>
+    <t>Candacia</t>
+  </si>
+  <si>
+    <t>Centropages bradyi</t>
+  </si>
+  <si>
+    <t>Clausocalanus</t>
+  </si>
+  <si>
+    <t>Eucalanus</t>
+  </si>
+  <si>
+    <t>Euchaetidae</t>
+  </si>
+  <si>
+    <t>Labidocera</t>
+  </si>
+  <si>
+    <t>Rhincalanus</t>
+  </si>
+  <si>
+    <t>Scolecitrichidae</t>
+  </si>
+  <si>
+    <t>Temora stylifera</t>
+  </si>
+  <si>
+    <t>Temora turbinata</t>
+  </si>
+  <si>
+    <t>Balanidae</t>
+  </si>
+  <si>
+    <t>Ectoprocta</t>
+  </si>
+  <si>
+    <t>Gastropoda</t>
+  </si>
+  <si>
+    <t>Oikopleura</t>
+  </si>
+  <si>
+    <t>Polychaeta</t>
+  </si>
+  <si>
+    <t>Sagitta</t>
+  </si>
+  <si>
+    <t>Siphonophora</t>
+  </si>
+  <si>
+    <t>Heteropoda</t>
+  </si>
+  <si>
+    <t>Aetideidae</t>
+  </si>
+  <si>
+    <t>Calanoida</t>
+  </si>
+  <si>
+    <t>Calocalanus</t>
+  </si>
+  <si>
+    <t>Centropages</t>
+  </si>
+  <si>
+    <t>Corycaeidae</t>
+  </si>
+  <si>
+    <t>Cyclopoida</t>
+  </si>
+  <si>
+    <t>Lucicutia</t>
+  </si>
+  <si>
+    <t>Neocalanus</t>
+  </si>
+  <si>
+    <t>Pleuromamma borealis</t>
+  </si>
+  <si>
+    <t>Pseudocalanidae</t>
+  </si>
+  <si>
+    <t>Heterorhabdidae</t>
+  </si>
+  <si>
+    <t>Centropages furcatus</t>
+  </si>
+  <si>
+    <t>Corycaeus</t>
+  </si>
+  <si>
+    <t>Mecynocera clausi</t>
+  </si>
+  <si>
+    <t>Metridia</t>
+  </si>
+  <si>
+    <t>Paracalanus</t>
+  </si>
+  <si>
+    <t>Pontellidae</t>
+  </si>
+  <si>
+    <t>Temora</t>
+  </si>
+  <si>
+    <t>Tortanus discaudatus</t>
+  </si>
+  <si>
+    <t>Undinula vulgaris</t>
+  </si>
+  <si>
+    <t>Brachyura</t>
+  </si>
+  <si>
+    <t>Caridea</t>
+  </si>
+  <si>
+    <t>Creseis</t>
+  </si>
+  <si>
+    <t>Cumacea</t>
+  </si>
+  <si>
+    <t>Decapoda</t>
+  </si>
+  <si>
+    <t>Gammaridea</t>
+  </si>
+  <si>
+    <t>Lucifer</t>
+  </si>
+  <si>
+    <t>Mysida</t>
+  </si>
+  <si>
+    <t>Paguridea</t>
+  </si>
+  <si>
+    <t>Sagitta elegans</t>
+  </si>
+  <si>
+    <t>Salpidae</t>
+  </si>
+  <si>
+    <t>Calanus</t>
+  </si>
+  <si>
+    <t>Augaptilidae</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Conway and Williams 1986</t>
+  </si>
+  <si>
+    <t>ICES WGZE</t>
+  </si>
+  <si>
+    <t>Anger 1996</t>
+  </si>
+  <si>
+    <t>mg m-2</t>
+  </si>
+  <si>
+    <t>Piontkovski et al 2008</t>
+  </si>
+  <si>
+    <t>Barton et al. 2020; 0.78 ug Swadlinght et al 1997 in Lonsdale et al 2000; 0.67 ICES WGZE</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>ICES WGZE for various spp of metridia</t>
+  </si>
+  <si>
+    <t>Turner et al 2001</t>
+  </si>
+  <si>
+    <t>Balanus nauplii 10.47 ug Turner et al 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaliacea </t>
+  </si>
+  <si>
+    <t>Oikopleura longicauda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -301,7 +507,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,15 +842,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547BC701-2430-44BE-8F0B-8B88EB8C7793}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -652,569 +858,663 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5.91</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>85.35</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>3.45</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>85.35</v>
       </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>4.5</v>
       </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>85.35</v>
       </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2.57</v>
       </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>85.35</v>
       </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1.25</v>
       </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>85.35</v>
       </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>134</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -1222,19 +1522,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>134</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -1242,19 +1542,19 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>134</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -1262,19 +1562,19 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>134</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -1282,19 +1582,19 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>31.3</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -1302,19 +1602,19 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>31.3</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -1322,19 +1622,19 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>31.3</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -1342,19 +1642,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>31.3</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -1362,105 +1662,123 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>910</v>
       </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>4.28</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -1468,19 +1786,19 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>21.61</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -1488,39 +1806,39 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>0.41</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>0.45</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -1528,19 +1846,19 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>0.16</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -1548,19 +1866,19 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>2.36</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -1568,39 +1886,39 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>0.98</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>195.75</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -1608,19 +1926,19 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>195.75</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -1628,19 +1946,19 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>3.43</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -1648,115 +1966,872 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" s="1">
+        <v>148</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D69">
-        <v>148</v>
-      </c>
-      <c r="E69" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" s="1">
+        <v>190</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" t="s">
-        <v>69</v>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1">
+        <v>123</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="1">
+        <v>435</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="1">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="1">
+        <v>450</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" s="1">
+        <v>84</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="1">
+        <v>18</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="1">
+        <v>600</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D133" s="1">
+        <v>32</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="1">
+        <v>500</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" s="1">
+        <v>778</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>